--- a/src/test/resources/ApiData.xlsx
+++ b/src/test/resources/ApiData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>London</t>
   </si>
@@ -34,13 +34,34 @@
   </si>
   <si>
     <t>Kiev</t>
+  </si>
+  <si>
+    <t>http://api.openweathermap.org</t>
+  </si>
+  <si>
+    <t>/data/2.5/weather</t>
+  </si>
+  <si>
+    <t>APPID</t>
+  </si>
+  <si>
+    <t>c5ab9ff131b9aa83256a683780587926</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>london</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +79,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF008000"/>
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="204"/>
@@ -83,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -91,6 +120,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -392,38 +424,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="39.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/test/resources/ApiData.xlsx
+++ b/src/test/resources/ApiData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>London</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Kiev</t>
-  </si>
-  <si>
-    <t>http://api.openweathermap.org</t>
   </si>
   <si>
     <t>/data/2.5/weather</t>
@@ -424,112 +421,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>5</v>
       </c>
     </row>
